--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/App-Lrp1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/App-Lrp1.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>95.32301533333333</v>
+        <v>98.52314999999999</v>
       </c>
       <c r="H2">
-        <v>285.969046</v>
+        <v>295.56945</v>
       </c>
       <c r="I2">
-        <v>0.2086259240761469</v>
+        <v>0.1543096363744211</v>
       </c>
       <c r="J2">
-        <v>0.2086259240761469</v>
+        <v>0.1543096363744211</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.749051</v>
+        <v>9.172748</v>
       </c>
       <c r="N2">
-        <v>5.247153</v>
+        <v>27.518244</v>
       </c>
       <c r="O2">
-        <v>0.003644723415756577</v>
+        <v>0.01445826353606064</v>
       </c>
       <c r="P2">
-        <v>0.003644723415756578</v>
+        <v>0.01445826353606064</v>
       </c>
       <c r="Q2">
-        <v>166.724815291782</v>
+        <v>903.7280271161999</v>
       </c>
       <c r="R2">
-        <v>1500.523337626038</v>
+        <v>8133.552244045799</v>
       </c>
       <c r="S2">
-        <v>0.0007603837906141865</v>
+        <v>0.002231049388855069</v>
       </c>
       <c r="T2">
-        <v>0.0007603837906141866</v>
+        <v>0.002231049388855068</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>95.32301533333333</v>
+        <v>98.52314999999999</v>
       </c>
       <c r="H3">
-        <v>285.969046</v>
+        <v>295.56945</v>
       </c>
       <c r="I3">
-        <v>0.2086259240761469</v>
+        <v>0.1543096363744211</v>
       </c>
       <c r="J3">
-        <v>0.2086259240761469</v>
+        <v>0.1543096363744211</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>429.10666</v>
       </c>
       <c r="O3">
-        <v>0.2980616520156924</v>
+        <v>0.2254554169720557</v>
       </c>
       <c r="P3">
-        <v>0.2980616520156925</v>
+        <v>0.2254554169720557</v>
       </c>
       <c r="Q3">
-        <v>13634.58024360515</v>
+        <v>14092.313276393</v>
       </c>
       <c r="R3">
-        <v>122711.2221924464</v>
+        <v>126830.819487537</v>
       </c>
       <c r="S3">
-        <v>0.06218338758343677</v>
+        <v>0.0347899434116014</v>
       </c>
       <c r="T3">
-        <v>0.06218338758343678</v>
+        <v>0.0347899434116014</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>95.32301533333333</v>
+        <v>98.52314999999999</v>
       </c>
       <c r="H4">
-        <v>285.969046</v>
+        <v>295.56945</v>
       </c>
       <c r="I4">
-        <v>0.2086259240761469</v>
+        <v>0.1543096363744211</v>
       </c>
       <c r="J4">
-        <v>0.2086259240761469</v>
+        <v>0.1543096363744211</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>132.804812</v>
+        <v>169.2367096666667</v>
       </c>
       <c r="N4">
-        <v>398.414436</v>
+        <v>507.7101290000001</v>
       </c>
       <c r="O4">
-        <v>0.2767425352500014</v>
+        <v>0.2667541884216647</v>
       </c>
       <c r="P4">
-        <v>0.2767425352500014</v>
+        <v>0.2667541884216647</v>
       </c>
       <c r="Q4">
-        <v>12659.35513061645</v>
+        <v>16673.73373199545</v>
       </c>
       <c r="R4">
-        <v>113934.1961755481</v>
+        <v>150063.603587959</v>
       </c>
       <c r="S4">
-        <v>0.05773566714770721</v>
+        <v>0.04116274181670088</v>
       </c>
       <c r="T4">
-        <v>0.0577356671477072</v>
+        <v>0.04116274181670088</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>95.32301533333333</v>
+        <v>98.52314999999999</v>
       </c>
       <c r="H5">
-        <v>285.969046</v>
+        <v>295.56945</v>
       </c>
       <c r="I5">
-        <v>0.2086259240761469</v>
+        <v>0.1543096363744211</v>
       </c>
       <c r="J5">
-        <v>0.2086259240761469</v>
+        <v>0.1543096363744211</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>23.00271466666667</v>
+        <v>16.15031566666667</v>
       </c>
       <c r="N5">
-        <v>69.008144</v>
+        <v>48.450947</v>
       </c>
       <c r="O5">
-        <v>0.04793372678759353</v>
+        <v>0.02545644119943506</v>
       </c>
       <c r="P5">
-        <v>0.04793372678759353</v>
+        <v>0.02545644119943505</v>
       </c>
       <c r="Q5">
-        <v>2192.688122878958</v>
+        <v>1591.17997297435</v>
       </c>
       <c r="R5">
-        <v>19734.19310591062</v>
+        <v>14320.61975676915</v>
       </c>
       <c r="S5">
-        <v>0.01000021804547526</v>
+        <v>0.003928174184871655</v>
       </c>
       <c r="T5">
-        <v>0.01000021804547526</v>
+        <v>0.003928174184871654</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>95.32301533333333</v>
+        <v>98.52314999999999</v>
       </c>
       <c r="H6">
-        <v>285.969046</v>
+        <v>295.56945</v>
       </c>
       <c r="I6">
-        <v>0.2086259240761469</v>
+        <v>0.1543096363744211</v>
       </c>
       <c r="J6">
-        <v>0.2086259240761469</v>
+        <v>0.1543096363744211</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>53.58648166666666</v>
+        <v>54.744643</v>
       </c>
       <c r="N6">
-        <v>160.759445</v>
+        <v>164.233929</v>
       </c>
       <c r="O6">
-        <v>0.111665071229204</v>
+        <v>0.08628956945961638</v>
       </c>
       <c r="P6">
-        <v>0.111665071229204</v>
+        <v>0.08628956945961638</v>
       </c>
       <c r="Q6">
-        <v>5108.025013571052</v>
+        <v>5393.614673985449</v>
       </c>
       <c r="R6">
-        <v>45972.22512213947</v>
+        <v>48542.53206586905</v>
       </c>
       <c r="S6">
-        <v>0.02329622867222146</v>
+        <v>0.01331531208621875</v>
       </c>
       <c r="T6">
-        <v>0.02329622867222146</v>
+        <v>0.01331531208621875</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>95.32301533333333</v>
+        <v>98.52314999999999</v>
       </c>
       <c r="H7">
-        <v>285.969046</v>
+        <v>295.56945</v>
       </c>
       <c r="I7">
-        <v>0.2086259240761469</v>
+        <v>0.1543096363744211</v>
       </c>
       <c r="J7">
-        <v>0.2086259240761469</v>
+        <v>0.1543096363744211</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>125.707184</v>
+        <v>242.0894676666667</v>
       </c>
       <c r="N7">
-        <v>377.1215520000001</v>
+        <v>726.268403</v>
       </c>
       <c r="O7">
-        <v>0.261952291301752</v>
+        <v>0.3815861204111676</v>
       </c>
       <c r="P7">
-        <v>0.261952291301752</v>
+        <v>0.3815861204111676</v>
       </c>
       <c r="Q7">
-        <v>11982.78782794216</v>
+        <v>23851.41693634315</v>
       </c>
       <c r="R7">
-        <v>107845.0904514794</v>
+        <v>214662.7524270883</v>
       </c>
       <c r="S7">
-        <v>0.05465003883669204</v>
+        <v>0.05888241548617333</v>
       </c>
       <c r="T7">
-        <v>0.05465003883669203</v>
+        <v>0.05888241548617333</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>263.560998</v>
       </c>
       <c r="I8">
-        <v>0.1922783515464171</v>
+        <v>0.1375988004303541</v>
       </c>
       <c r="J8">
-        <v>0.1922783515464171</v>
+        <v>0.1375988004303541</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.749051</v>
+        <v>9.172748</v>
       </c>
       <c r="N8">
-        <v>5.247153</v>
+        <v>27.518244</v>
       </c>
       <c r="O8">
-        <v>0.003644723415756577</v>
+        <v>0.01445826353606064</v>
       </c>
       <c r="P8">
-        <v>0.003644723415756578</v>
+        <v>0.01445826353606064</v>
       </c>
       <c r="Q8">
-        <v>153.660542370966</v>
+        <v>805.8595390941682</v>
       </c>
       <c r="R8">
-        <v>1382.944881338694</v>
+        <v>7252.735851847513</v>
       </c>
       <c r="S8">
-        <v>0.0007008014102243013</v>
+        <v>0.001989439718867874</v>
       </c>
       <c r="T8">
-        <v>0.0007008014102243014</v>
+        <v>0.001989439718867874</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>263.560998</v>
       </c>
       <c r="I9">
-        <v>0.1922783515464171</v>
+        <v>0.1375988004303541</v>
       </c>
       <c r="J9">
-        <v>0.1922783515464171</v>
+        <v>0.1375988004303541</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>429.10666</v>
       </c>
       <c r="O9">
-        <v>0.2980616520156924</v>
+        <v>0.2254554169720557</v>
       </c>
       <c r="P9">
-        <v>0.2980616520156925</v>
+        <v>0.2254554169720557</v>
       </c>
       <c r="Q9">
         <v>12566.19772867186</v>
@@ -1013,10 +1013,10 @@
         <v>113095.7795580467</v>
       </c>
       <c r="S9">
-        <v>0.05731080310877915</v>
+        <v>0.03102239492588017</v>
       </c>
       <c r="T9">
-        <v>0.05731080310877915</v>
+        <v>0.03102239492588017</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>263.560998</v>
       </c>
       <c r="I10">
-        <v>0.1922783515464171</v>
+        <v>0.1375988004303541</v>
       </c>
       <c r="J10">
-        <v>0.1922783515464171</v>
+        <v>0.1375988004303541</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>132.804812</v>
+        <v>169.2367096666667</v>
       </c>
       <c r="N10">
-        <v>398.414436</v>
+        <v>507.7101290000001</v>
       </c>
       <c r="O10">
-        <v>0.2767425352500014</v>
+        <v>0.2667541884216647</v>
       </c>
       <c r="P10">
-        <v>0.2767425352500014</v>
+        <v>0.2667541884216647</v>
       </c>
       <c r="Q10">
-        <v>11667.38959664079</v>
+        <v>14868.06536599431</v>
       </c>
       <c r="R10">
-        <v>105006.5063697671</v>
+        <v>133812.5882939488</v>
       </c>
       <c r="S10">
-        <v>0.05321159848064649</v>
+        <v>0.03670505633659372</v>
       </c>
       <c r="T10">
-        <v>0.05321159848064649</v>
+        <v>0.03670505633659372</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>263.560998</v>
       </c>
       <c r="I11">
-        <v>0.1922783515464171</v>
+        <v>0.1375988004303541</v>
       </c>
       <c r="J11">
-        <v>0.1922783515464171</v>
+        <v>0.1375988004303541</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>23.00271466666667</v>
+        <v>16.15031566666667</v>
       </c>
       <c r="N11">
-        <v>69.008144</v>
+        <v>48.450947</v>
       </c>
       <c r="O11">
-        <v>0.04793372678759353</v>
+        <v>0.02545644119943506</v>
       </c>
       <c r="P11">
-        <v>0.04793372678759353</v>
+        <v>0.02545644119943505</v>
       </c>
       <c r="Q11">
-        <v>2020.872811418635</v>
+        <v>1418.864438373901</v>
       </c>
       <c r="R11">
-        <v>18187.85530276772</v>
+        <v>12769.77994536511</v>
       </c>
       <c r="S11">
-        <v>0.00921661797019482</v>
+        <v>0.003502775772268109</v>
       </c>
       <c r="T11">
-        <v>0.00921661797019482</v>
+        <v>0.003502775772268108</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>263.560998</v>
       </c>
       <c r="I12">
-        <v>0.1922783515464171</v>
+        <v>0.1375988004303541</v>
       </c>
       <c r="J12">
-        <v>0.1922783515464171</v>
+        <v>0.1375988004303541</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>53.58648166666666</v>
+        <v>54.744643</v>
       </c>
       <c r="N12">
-        <v>160.759445</v>
+        <v>164.233929</v>
       </c>
       <c r="O12">
-        <v>0.111665071229204</v>
+        <v>0.08628956945961638</v>
       </c>
       <c r="P12">
-        <v>0.111665071229204</v>
+        <v>0.08628956945961638</v>
       </c>
       <c r="Q12">
-        <v>4707.768862458457</v>
+        <v>4809.517581411239</v>
       </c>
       <c r="R12">
-        <v>42369.91976212612</v>
+        <v>43285.65823270116</v>
       </c>
       <c r="S12">
-        <v>0.0214707758212646</v>
+        <v>0.01187334124729494</v>
       </c>
       <c r="T12">
-        <v>0.0214707758212646</v>
+        <v>0.01187334124729494</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>263.560998</v>
       </c>
       <c r="I13">
-        <v>0.1922783515464171</v>
+        <v>0.1375988004303541</v>
       </c>
       <c r="J13">
-        <v>0.1922783515464171</v>
+        <v>0.1375988004303541</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>125.707184</v>
+        <v>242.0894676666667</v>
       </c>
       <c r="N13">
-        <v>377.1215520000001</v>
+        <v>726.268403</v>
       </c>
       <c r="O13">
-        <v>0.261952291301752</v>
+        <v>0.3815861204111676</v>
       </c>
       <c r="P13">
-        <v>0.261952291301752</v>
+        <v>0.3815861204111676</v>
       </c>
       <c r="Q13">
-        <v>11043.83695693655</v>
+        <v>21268.44723450514</v>
       </c>
       <c r="R13">
-        <v>99394.53261242893</v>
+        <v>191416.0251105462</v>
       </c>
       <c r="S13">
-        <v>0.05036775475530774</v>
+        <v>0.05250579242944934</v>
       </c>
       <c r="T13">
-        <v>0.05036775475530773</v>
+        <v>0.05250579242944934</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>89.00545999999999</v>
+        <v>137.0699463333333</v>
       </c>
       <c r="H14">
-        <v>267.01638</v>
+        <v>411.209839</v>
       </c>
       <c r="I14">
-        <v>0.1947991917312883</v>
+        <v>0.2146826768790693</v>
       </c>
       <c r="J14">
-        <v>0.1947991917312882</v>
+        <v>0.2146826768790693</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>1.749051</v>
+        <v>9.172748</v>
       </c>
       <c r="N14">
-        <v>5.247153</v>
+        <v>27.518244</v>
       </c>
       <c r="O14">
-        <v>0.003644723415756577</v>
+        <v>0.01445826353606064</v>
       </c>
       <c r="P14">
-        <v>0.003644723415756578</v>
+        <v>0.01445826353606064</v>
       </c>
       <c r="Q14">
-        <v>155.67508881846</v>
+        <v>1257.308076089191</v>
       </c>
       <c r="R14">
-        <v>1401.07579936614</v>
+        <v>11315.77268480272</v>
       </c>
       <c r="S14">
-        <v>0.0007099891754734813</v>
+        <v>0.003103938718944536</v>
       </c>
       <c r="T14">
-        <v>0.0007099891754734814</v>
+        <v>0.003103938718944536</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>89.00545999999999</v>
+        <v>137.0699463333333</v>
       </c>
       <c r="H15">
-        <v>267.01638</v>
+        <v>411.209839</v>
       </c>
       <c r="I15">
-        <v>0.1947991917312883</v>
+        <v>0.2146826768790693</v>
       </c>
       <c r="J15">
-        <v>0.1947991917312882</v>
+        <v>0.2146826768790693</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>429.10666</v>
       </c>
       <c r="O15">
-        <v>0.2980616520156924</v>
+        <v>0.2254554169720557</v>
       </c>
       <c r="P15">
-        <v>0.2980616520156925</v>
+        <v>0.2254554169720557</v>
       </c>
       <c r="Q15">
-        <v>12730.94522078787</v>
+        <v>19605.87561915864</v>
       </c>
       <c r="R15">
-        <v>114578.5069870908</v>
+        <v>176452.8805724278</v>
       </c>
       <c r="S15">
-        <v>0.05806216889874938</v>
+        <v>0.04840137243244768</v>
       </c>
       <c r="T15">
-        <v>0.05806216889874939</v>
+        <v>0.04840137243244767</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>89.00545999999999</v>
+        <v>137.0699463333333</v>
       </c>
       <c r="H16">
-        <v>267.01638</v>
+        <v>411.209839</v>
       </c>
       <c r="I16">
-        <v>0.1947991917312883</v>
+        <v>0.2146826768790693</v>
       </c>
       <c r="J16">
-        <v>0.1947991917312882</v>
+        <v>0.2146826768790693</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>132.804812</v>
+        <v>169.2367096666667</v>
       </c>
       <c r="N16">
-        <v>398.414436</v>
+        <v>507.7101290000001</v>
       </c>
       <c r="O16">
-        <v>0.2767425352500014</v>
+        <v>0.2667541884216647</v>
       </c>
       <c r="P16">
-        <v>0.2767425352500014</v>
+        <v>0.2667541884216647</v>
       </c>
       <c r="Q16">
-        <v>11820.35338227352</v>
+        <v>23197.26671163991</v>
       </c>
       <c r="R16">
-        <v>106383.1804404617</v>
+        <v>208775.4004047592</v>
       </c>
       <c r="S16">
-        <v>0.05390922218436782</v>
+        <v>0.05726750323906661</v>
       </c>
       <c r="T16">
-        <v>0.05390922218436781</v>
+        <v>0.05726750323906661</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>89.00545999999999</v>
+        <v>137.0699463333333</v>
       </c>
       <c r="H17">
-        <v>267.01638</v>
+        <v>411.209839</v>
       </c>
       <c r="I17">
-        <v>0.1947991917312883</v>
+        <v>0.2146826768790693</v>
       </c>
       <c r="J17">
-        <v>0.1947991917312882</v>
+        <v>0.2146826768790693</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>23.00271466666667</v>
+        <v>16.15031566666667</v>
       </c>
       <c r="N17">
-        <v>69.008144</v>
+        <v>48.450947</v>
       </c>
       <c r="O17">
-        <v>0.04793372678759353</v>
+        <v>0.02545644119943506</v>
       </c>
       <c r="P17">
-        <v>0.04793372678759353</v>
+        <v>0.02545644119943505</v>
       </c>
       <c r="Q17">
-        <v>2047.367200155413</v>
+        <v>2213.722901696392</v>
       </c>
       <c r="R17">
-        <v>18426.30480139872</v>
+        <v>19923.50611526753</v>
       </c>
       <c r="S17">
-        <v>0.00933745123489162</v>
+        <v>0.005465056940509344</v>
       </c>
       <c r="T17">
-        <v>0.00933745123489162</v>
+        <v>0.005465056940509343</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>89.00545999999999</v>
+        <v>137.0699463333333</v>
       </c>
       <c r="H18">
-        <v>267.01638</v>
+        <v>411.209839</v>
       </c>
       <c r="I18">
-        <v>0.1947991917312883</v>
+        <v>0.2146826768790693</v>
       </c>
       <c r="J18">
-        <v>0.1947991917312882</v>
+        <v>0.2146826768790693</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>53.58648166666666</v>
+        <v>54.744643</v>
       </c>
       <c r="N18">
-        <v>160.759445</v>
+        <v>164.233929</v>
       </c>
       <c r="O18">
-        <v>0.111665071229204</v>
+        <v>0.08628956945961638</v>
       </c>
       <c r="P18">
-        <v>0.111665071229204</v>
+        <v>0.08628956945961638</v>
       </c>
       <c r="Q18">
-        <v>4769.489450523232</v>
+        <v>7503.845278047492</v>
       </c>
       <c r="R18">
-        <v>42925.4050547091</v>
+        <v>67534.60750242743</v>
       </c>
       <c r="S18">
-        <v>0.02175226562006568</v>
+        <v>0.01852487575833283</v>
       </c>
       <c r="T18">
-        <v>0.02175226562006568</v>
+        <v>0.01852487575833283</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>89.00545999999999</v>
+        <v>137.0699463333333</v>
       </c>
       <c r="H19">
-        <v>267.01638</v>
+        <v>411.209839</v>
       </c>
       <c r="I19">
-        <v>0.1947991917312883</v>
+        <v>0.2146826768790693</v>
       </c>
       <c r="J19">
-        <v>0.1947991917312882</v>
+        <v>0.2146826768790693</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>125.707184</v>
+        <v>242.0894676666667</v>
       </c>
       <c r="N19">
-        <v>377.1215520000001</v>
+        <v>726.268403</v>
       </c>
       <c r="O19">
-        <v>0.261952291301752</v>
+        <v>0.3815861204111676</v>
       </c>
       <c r="P19">
-        <v>0.261952291301752</v>
+        <v>0.3815861204111676</v>
       </c>
       <c r="Q19">
-        <v>11188.62573722464</v>
+        <v>33183.19034093523</v>
       </c>
       <c r="R19">
-        <v>100697.6316350218</v>
+        <v>298648.7130684171</v>
       </c>
       <c r="S19">
-        <v>0.05102809461774026</v>
+        <v>0.08191992978976835</v>
       </c>
       <c r="T19">
-        <v>0.05102809461774026</v>
+        <v>0.08191992978976835</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>44.07463300000001</v>
+        <v>18.36172366666667</v>
       </c>
       <c r="H20">
-        <v>132.223899</v>
+        <v>55.085171</v>
       </c>
       <c r="I20">
-        <v>0.09646265391194167</v>
+        <v>0.02875863086199473</v>
       </c>
       <c r="J20">
-        <v>0.09646265391194166</v>
+        <v>0.02875863086199473</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>1.749051</v>
+        <v>9.172748</v>
       </c>
       <c r="N20">
-        <v>5.247153</v>
+        <v>27.518244</v>
       </c>
       <c r="O20">
-        <v>0.003644723415756577</v>
+        <v>0.01445826353606064</v>
       </c>
       <c r="P20">
-        <v>0.003644723415756578</v>
+        <v>0.01445826353606064</v>
       </c>
       <c r="Q20">
-        <v>77.08878092328301</v>
+        <v>168.4274640399693</v>
       </c>
       <c r="R20">
-        <v>693.7990283095471</v>
+        <v>1515.847176359724</v>
       </c>
       <c r="S20">
-        <v>0.0003515796934588766</v>
+        <v>0.0004157998639390064</v>
       </c>
       <c r="T20">
-        <v>0.0003515796934588766</v>
+        <v>0.0004157998639390064</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>44.07463300000001</v>
+        <v>18.36172366666667</v>
       </c>
       <c r="H21">
-        <v>132.223899</v>
+        <v>55.085171</v>
       </c>
       <c r="I21">
-        <v>0.09646265391194167</v>
+        <v>0.02875863086199473</v>
       </c>
       <c r="J21">
-        <v>0.09646265391194166</v>
+        <v>0.02875863086199473</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>429.10666</v>
       </c>
       <c r="O21">
-        <v>0.2980616520156924</v>
+        <v>0.2254554169720557</v>
       </c>
       <c r="P21">
-        <v>0.2980616520156925</v>
+        <v>0.2254554169720557</v>
       </c>
       <c r="Q21">
-        <v>6304.239519118595</v>
+        <v>2626.379304815429</v>
       </c>
       <c r="R21">
-        <v>56738.15567206735</v>
+        <v>23637.41374333886</v>
       </c>
       <c r="S21">
-        <v>0.02875181798281133</v>
+        <v>0.006483789112536451</v>
       </c>
       <c r="T21">
-        <v>0.02875181798281133</v>
+        <v>0.00648378911253645</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>44.07463300000001</v>
+        <v>18.36172366666667</v>
       </c>
       <c r="H22">
-        <v>132.223899</v>
+        <v>55.085171</v>
       </c>
       <c r="I22">
-        <v>0.09646265391194167</v>
+        <v>0.02875863086199473</v>
       </c>
       <c r="J22">
-        <v>0.09646265391194166</v>
+        <v>0.02875863086199473</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>132.804812</v>
+        <v>169.2367096666667</v>
       </c>
       <c r="N22">
-        <v>398.414436</v>
+        <v>507.7101290000001</v>
       </c>
       <c r="O22">
-        <v>0.2767425352500014</v>
+        <v>0.2667541884216647</v>
       </c>
       <c r="P22">
-        <v>0.2767425352500014</v>
+        <v>0.2667541884216647</v>
       </c>
       <c r="Q22">
-        <v>5853.323349533996</v>
+        <v>3107.477697155229</v>
       </c>
       <c r="R22">
-        <v>52679.91014580597</v>
+        <v>27967.29927439706</v>
       </c>
       <c r="S22">
-        <v>0.0266953194005342</v>
+        <v>0.007671485235709641</v>
       </c>
       <c r="T22">
-        <v>0.02669531940053419</v>
+        <v>0.007671485235709641</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>44.07463300000001</v>
+        <v>18.36172366666667</v>
       </c>
       <c r="H23">
-        <v>132.223899</v>
+        <v>55.085171</v>
       </c>
       <c r="I23">
-        <v>0.09646265391194167</v>
+        <v>0.02875863086199473</v>
       </c>
       <c r="J23">
-        <v>0.09646265391194166</v>
+        <v>0.02875863086199473</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>23.00271466666667</v>
+        <v>16.15031566666667</v>
       </c>
       <c r="N23">
-        <v>69.008144</v>
+        <v>48.450947</v>
       </c>
       <c r="O23">
-        <v>0.04793372678759353</v>
+        <v>0.02545644119943506</v>
       </c>
       <c r="P23">
-        <v>0.04793372678759353</v>
+        <v>0.02545644119943505</v>
       </c>
       <c r="Q23">
-        <v>1013.836206937051</v>
+        <v>296.5476334007708</v>
       </c>
       <c r="R23">
-        <v>9124.525862433456</v>
+        <v>2668.928700606937</v>
       </c>
       <c r="S23">
-        <v>0.004623814497821202</v>
+        <v>0.000732092395514627</v>
       </c>
       <c r="T23">
-        <v>0.004623814497821202</v>
+        <v>0.000732092395514627</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>44.07463300000001</v>
+        <v>18.36172366666667</v>
       </c>
       <c r="H24">
-        <v>132.223899</v>
+        <v>55.085171</v>
       </c>
       <c r="I24">
-        <v>0.09646265391194167</v>
+        <v>0.02875863086199473</v>
       </c>
       <c r="J24">
-        <v>0.09646265391194166</v>
+        <v>0.02875863086199473</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>53.58648166666666</v>
+        <v>54.744643</v>
       </c>
       <c r="N24">
-        <v>160.759445</v>
+        <v>164.233929</v>
       </c>
       <c r="O24">
-        <v>0.111665071229204</v>
+        <v>0.08628956945961638</v>
       </c>
       <c r="P24">
-        <v>0.111665071229204</v>
+        <v>0.08628956945961638</v>
       </c>
       <c r="Q24">
-        <v>2361.804513219562</v>
+        <v>1005.206006996318</v>
       </c>
       <c r="R24">
-        <v>21256.24061897606</v>
+        <v>9046.854062966861</v>
       </c>
       <c r="S24">
-        <v>0.01077150912003502</v>
+        <v>0.002481569875329561</v>
       </c>
       <c r="T24">
-        <v>0.01077150912003502</v>
+        <v>0.002481569875329561</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>44.07463300000001</v>
+        <v>18.36172366666667</v>
       </c>
       <c r="H25">
-        <v>132.223899</v>
+        <v>55.085171</v>
       </c>
       <c r="I25">
-        <v>0.09646265391194167</v>
+        <v>0.02875863086199473</v>
       </c>
       <c r="J25">
-        <v>0.09646265391194166</v>
+        <v>0.02875863086199473</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>125.707184</v>
+        <v>242.0894676666667</v>
       </c>
       <c r="N25">
-        <v>377.1215520000001</v>
+        <v>726.268403</v>
       </c>
       <c r="O25">
-        <v>0.261952291301752</v>
+        <v>0.3815861204111676</v>
       </c>
       <c r="P25">
-        <v>0.261952291301752</v>
+        <v>0.3815861204111676</v>
       </c>
       <c r="Q25">
-        <v>5540.498000263474</v>
+        <v>4445.179907905768</v>
       </c>
       <c r="R25">
-        <v>49864.48200237126</v>
+        <v>40006.61917115191</v>
       </c>
       <c r="S25">
-        <v>0.02526861321728103</v>
+        <v>0.01097389437896544</v>
       </c>
       <c r="T25">
-        <v>0.02526861321728103</v>
+        <v>0.01097389437896544</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,16 +2031,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>72.54370233333333</v>
+        <v>90.60931133333334</v>
       </c>
       <c r="H26">
-        <v>217.631107</v>
+        <v>271.827934</v>
       </c>
       <c r="I26">
-        <v>0.1587706482245977</v>
+        <v>0.1419147670774166</v>
       </c>
       <c r="J26">
-        <v>0.1587706482245977</v>
+        <v>0.1419147670774166</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>1.749051</v>
+        <v>9.172748</v>
       </c>
       <c r="N26">
-        <v>5.247153</v>
+        <v>27.518244</v>
       </c>
       <c r="O26">
-        <v>0.003644723415756577</v>
+        <v>0.01445826353606064</v>
       </c>
       <c r="P26">
-        <v>0.003644723415756578</v>
+        <v>0.01445826353606064</v>
       </c>
       <c r="Q26">
-        <v>126.882635109819</v>
+        <v>831.1363793142108</v>
       </c>
       <c r="R26">
-        <v>1141.943715988371</v>
+        <v>7480.227413827896</v>
       </c>
       <c r="S26">
-        <v>0.0005786750993190418</v>
+        <v>0.002051841102063951</v>
       </c>
       <c r="T26">
-        <v>0.0005786750993190419</v>
+        <v>0.002051841102063951</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>72.54370233333333</v>
+        <v>90.60931133333334</v>
       </c>
       <c r="H27">
-        <v>217.631107</v>
+        <v>271.827934</v>
       </c>
       <c r="I27">
-        <v>0.1587706482245977</v>
+        <v>0.1419147670774166</v>
       </c>
       <c r="J27">
-        <v>0.1587706482245977</v>
+        <v>0.1419147670774166</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>429.10666</v>
       </c>
       <c r="O27">
-        <v>0.2980616520156924</v>
+        <v>0.2254554169720557</v>
       </c>
       <c r="P27">
-        <v>0.2980616520156925</v>
+        <v>0.2254554169720557</v>
       </c>
       <c r="Q27">
-        <v>10376.32860409696</v>
+        <v>12960.35298371561</v>
       </c>
       <c r="R27">
-        <v>93386.95743687262</v>
+        <v>116643.1768534405</v>
       </c>
       <c r="S27">
-        <v>0.04732344170142597</v>
+        <v>0.03199545298593113</v>
       </c>
       <c r="T27">
-        <v>0.04732344170142597</v>
+        <v>0.03199545298593112</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,16 +2155,16 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>72.54370233333333</v>
+        <v>90.60931133333334</v>
       </c>
       <c r="H28">
-        <v>217.631107</v>
+        <v>271.827934</v>
       </c>
       <c r="I28">
-        <v>0.1587706482245977</v>
+        <v>0.1419147670774166</v>
       </c>
       <c r="J28">
-        <v>0.1587706482245977</v>
+        <v>0.1419147670774166</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>132.804812</v>
+        <v>169.2367096666667</v>
       </c>
       <c r="N28">
-        <v>398.414436</v>
+        <v>507.7101290000001</v>
       </c>
       <c r="O28">
-        <v>0.2767425352500014</v>
+        <v>0.2667541884216647</v>
       </c>
       <c r="P28">
-        <v>0.2767425352500014</v>
+        <v>0.2667541884216647</v>
       </c>
       <c r="Q28">
-        <v>9634.152750162293</v>
+        <v>15334.42171521595</v>
       </c>
       <c r="R28">
-        <v>86707.37475146065</v>
+        <v>138009.7954369435</v>
       </c>
       <c r="S28">
-        <v>0.04393859171296131</v>
+        <v>0.03785635851678584</v>
       </c>
       <c r="T28">
-        <v>0.0439385917129613</v>
+        <v>0.03785635851678584</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>72.54370233333333</v>
+        <v>90.60931133333334</v>
       </c>
       <c r="H29">
-        <v>217.631107</v>
+        <v>271.827934</v>
       </c>
       <c r="I29">
-        <v>0.1587706482245977</v>
+        <v>0.1419147670774166</v>
       </c>
       <c r="J29">
-        <v>0.1587706482245977</v>
+        <v>0.1419147670774166</v>
       </c>
       <c r="K29">
         <v>3</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>23.00271466666667</v>
+        <v>16.15031566666667</v>
       </c>
       <c r="N29">
-        <v>69.008144</v>
+        <v>48.450947</v>
       </c>
       <c r="O29">
-        <v>0.04793372678759353</v>
+        <v>0.02545644119943506</v>
       </c>
       <c r="P29">
-        <v>0.04793372678759353</v>
+        <v>0.02545644119943505</v>
       </c>
       <c r="Q29">
-        <v>1668.702085637267</v>
+        <v>1463.368980372611</v>
       </c>
       <c r="R29">
-        <v>15018.31877073541</v>
+        <v>13170.3208233535</v>
       </c>
       <c r="S29">
-        <v>0.007610468873886989</v>
+        <v>0.003612644923437778</v>
       </c>
       <c r="T29">
-        <v>0.007610468873886989</v>
+        <v>0.003612644923437778</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>72.54370233333333</v>
+        <v>90.60931133333334</v>
       </c>
       <c r="H30">
-        <v>217.631107</v>
+        <v>271.827934</v>
       </c>
       <c r="I30">
-        <v>0.1587706482245977</v>
+        <v>0.1419147670774166</v>
       </c>
       <c r="J30">
-        <v>0.1587706482245977</v>
+        <v>0.1419147670774166</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>53.58648166666666</v>
+        <v>54.744643</v>
       </c>
       <c r="N30">
-        <v>160.759445</v>
+        <v>164.233929</v>
       </c>
       <c r="O30">
-        <v>0.111665071229204</v>
+        <v>0.08628956945961638</v>
       </c>
       <c r="P30">
-        <v>0.111665071229204</v>
+        <v>0.08628956945961638</v>
       </c>
       <c r="Q30">
-        <v>3887.36177511729</v>
+        <v>4960.374401419188</v>
       </c>
       <c r="R30">
-        <v>34986.25597605561</v>
+        <v>44643.36961277269</v>
       </c>
       <c r="S30">
-        <v>0.0177291357431066</v>
+        <v>0.01224576415107202</v>
       </c>
       <c r="T30">
-        <v>0.0177291357431066</v>
+        <v>0.01224576415107202</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,16 +2341,16 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>72.54370233333333</v>
+        <v>90.60931133333334</v>
       </c>
       <c r="H31">
-        <v>217.631107</v>
+        <v>271.827934</v>
       </c>
       <c r="I31">
-        <v>0.1587706482245977</v>
+        <v>0.1419147670774166</v>
       </c>
       <c r="J31">
-        <v>0.1587706482245977</v>
+        <v>0.1419147670774166</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>125.707184</v>
+        <v>242.0894676666667</v>
       </c>
       <c r="N31">
-        <v>377.1215520000001</v>
+        <v>726.268403</v>
       </c>
       <c r="O31">
-        <v>0.261952291301752</v>
+        <v>0.3815861204111676</v>
       </c>
       <c r="P31">
-        <v>0.261952291301752</v>
+        <v>0.3815861204111676</v>
       </c>
       <c r="Q31">
-        <v>9119.264537257564</v>
+        <v>21935.55994632994</v>
       </c>
       <c r="R31">
-        <v>82073.38083531808</v>
+        <v>197420.0395169694</v>
       </c>
       <c r="S31">
-        <v>0.04159033509389783</v>
+        <v>0.05415270539812591</v>
       </c>
       <c r="T31">
-        <v>0.04159033509389782</v>
+        <v>0.05415270539812591</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2403,16 +2403,16 @@
         <v>1</v>
       </c>
       <c r="G32">
-        <v>68.108298</v>
+        <v>206.0591786666667</v>
       </c>
       <c r="H32">
-        <v>204.324894</v>
+        <v>618.177536</v>
       </c>
       <c r="I32">
-        <v>0.1490632305096083</v>
+        <v>0.322735488376744</v>
       </c>
       <c r="J32">
-        <v>0.1490632305096083</v>
+        <v>0.322735488376744</v>
       </c>
       <c r="K32">
         <v>3</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>1.749051</v>
+        <v>9.172748</v>
       </c>
       <c r="N32">
-        <v>5.247153</v>
+        <v>27.518244</v>
       </c>
       <c r="O32">
-        <v>0.003644723415756577</v>
+        <v>0.01445826353606064</v>
       </c>
       <c r="P32">
-        <v>0.003644723415756578</v>
+        <v>0.01445826353606064</v>
       </c>
       <c r="Q32">
-        <v>119.124886725198</v>
+        <v>1890.128918996309</v>
       </c>
       <c r="R32">
-        <v>1072.123980526782</v>
+        <v>17011.16027096679</v>
       </c>
       <c r="S32">
-        <v>0.0005432942466666895</v>
+        <v>0.004666194743390199</v>
       </c>
       <c r="T32">
-        <v>0.0005432942466666896</v>
+        <v>0.004666194743390199</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2465,16 +2465,16 @@
         <v>1</v>
       </c>
       <c r="G33">
-        <v>68.108298</v>
+        <v>206.0591786666667</v>
       </c>
       <c r="H33">
-        <v>204.324894</v>
+        <v>618.177536</v>
       </c>
       <c r="I33">
-        <v>0.1490632305096083</v>
+        <v>0.322735488376744</v>
       </c>
       <c r="J33">
-        <v>0.1490632305096083</v>
+        <v>0.322735488376744</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2489,22 +2489,22 @@
         <v>429.10666</v>
       </c>
       <c r="O33">
-        <v>0.2980616520156924</v>
+        <v>0.2254554169720557</v>
       </c>
       <c r="P33">
-        <v>0.2980616520156925</v>
+        <v>0.2254554169720557</v>
       </c>
       <c r="Q33">
-        <v>9741.908091021562</v>
+        <v>29473.78863999887</v>
       </c>
       <c r="R33">
-        <v>87677.17281919406</v>
+        <v>265264.0977599898</v>
       </c>
       <c r="S33">
-        <v>0.04443003274048981</v>
+        <v>0.07276246410365886</v>
       </c>
       <c r="T33">
-        <v>0.04443003274048981</v>
+        <v>0.07276246410365884</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2527,16 +2527,16 @@
         <v>1</v>
       </c>
       <c r="G34">
-        <v>68.108298</v>
+        <v>206.0591786666667</v>
       </c>
       <c r="H34">
-        <v>204.324894</v>
+        <v>618.177536</v>
       </c>
       <c r="I34">
-        <v>0.1490632305096083</v>
+        <v>0.322735488376744</v>
       </c>
       <c r="J34">
-        <v>0.1490632305096083</v>
+        <v>0.322735488376744</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2545,28 +2545,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>132.804812</v>
+        <v>169.2367096666667</v>
       </c>
       <c r="N34">
-        <v>398.414436</v>
+        <v>507.7101290000001</v>
       </c>
       <c r="O34">
-        <v>0.2767425352500014</v>
+        <v>0.2667541884216647</v>
       </c>
       <c r="P34">
-        <v>0.2767425352500014</v>
+        <v>0.2667541884216647</v>
       </c>
       <c r="Q34">
-        <v>9045.109711529976</v>
+        <v>34872.77739416246</v>
       </c>
       <c r="R34">
-        <v>81405.9874037698</v>
+        <v>313854.9965474622</v>
       </c>
       <c r="S34">
-        <v>0.04125213632378435</v>
+        <v>0.08609104327680793</v>
       </c>
       <c r="T34">
-        <v>0.04125213632378434</v>
+        <v>0.08609104327680793</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2589,16 +2589,16 @@
         <v>1</v>
       </c>
       <c r="G35">
-        <v>68.108298</v>
+        <v>206.0591786666667</v>
       </c>
       <c r="H35">
-        <v>204.324894</v>
+        <v>618.177536</v>
       </c>
       <c r="I35">
-        <v>0.1490632305096083</v>
+        <v>0.322735488376744</v>
       </c>
       <c r="J35">
-        <v>0.1490632305096083</v>
+        <v>0.322735488376744</v>
       </c>
       <c r="K35">
         <v>3</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>23.00271466666667</v>
+        <v>16.15031566666667</v>
       </c>
       <c r="N35">
-        <v>69.008144</v>
+        <v>48.450947</v>
       </c>
       <c r="O35">
-        <v>0.04793372678759353</v>
+        <v>0.02545644119943506</v>
       </c>
       <c r="P35">
-        <v>0.04793372678759353</v>
+        <v>0.02545644119943505</v>
       </c>
       <c r="Q35">
-        <v>1566.675745326304</v>
+        <v>3327.920781480733</v>
       </c>
       <c r="R35">
-        <v>14100.08170793674</v>
+        <v>29951.28703332659</v>
       </c>
       <c r="S35">
-        <v>0.00714515616532364</v>
+        <v>0.008215696982833538</v>
       </c>
       <c r="T35">
-        <v>0.00714515616532364</v>
+        <v>0.008215696982833538</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2651,16 +2651,16 @@
         <v>1</v>
       </c>
       <c r="G36">
-        <v>68.108298</v>
+        <v>206.0591786666667</v>
       </c>
       <c r="H36">
-        <v>204.324894</v>
+        <v>618.177536</v>
       </c>
       <c r="I36">
-        <v>0.1490632305096083</v>
+        <v>0.322735488376744</v>
       </c>
       <c r="J36">
-        <v>0.1490632305096083</v>
+        <v>0.322735488376744</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>53.58648166666666</v>
+        <v>54.744643</v>
       </c>
       <c r="N36">
-        <v>160.759445</v>
+        <v>164.233929</v>
       </c>
       <c r="O36">
-        <v>0.111665071229204</v>
+        <v>0.08628956945961638</v>
       </c>
       <c r="P36">
-        <v>0.111665071229204</v>
+        <v>0.08628956945961638</v>
       </c>
       <c r="Q36">
-        <v>3649.68406212487</v>
+        <v>11280.63617297988</v>
       </c>
       <c r="R36">
-        <v>32847.15655912383</v>
+        <v>101525.725556819</v>
       </c>
       <c r="S36">
-        <v>0.01664515625251067</v>
+        <v>0.02784870634136826</v>
       </c>
       <c r="T36">
-        <v>0.01664515625251067</v>
+        <v>0.02784870634136826</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2713,16 +2713,16 @@
         <v>1</v>
       </c>
       <c r="G37">
-        <v>68.108298</v>
+        <v>206.0591786666667</v>
       </c>
       <c r="H37">
-        <v>204.324894</v>
+        <v>618.177536</v>
       </c>
       <c r="I37">
-        <v>0.1490632305096083</v>
+        <v>0.322735488376744</v>
       </c>
       <c r="J37">
-        <v>0.1490632305096083</v>
+        <v>0.322735488376744</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>125.707184</v>
+        <v>242.0894676666667</v>
       </c>
       <c r="N37">
-        <v>377.1215520000001</v>
+        <v>726.268403</v>
       </c>
       <c r="O37">
-        <v>0.261952291301752</v>
+        <v>0.3815861204111676</v>
       </c>
       <c r="P37">
-        <v>0.261952291301752</v>
+        <v>0.3815861204111676</v>
       </c>
       <c r="Q37">
-        <v>8561.702348612835</v>
+        <v>49884.7568712439</v>
       </c>
       <c r="R37">
-        <v>77055.32113751551</v>
+        <v>448962.811841195</v>
       </c>
       <c r="S37">
-        <v>0.03904745478083312</v>
+        <v>0.1231513829286852</v>
       </c>
       <c r="T37">
-        <v>0.03904745478083312</v>
+        <v>0.1231513829286852</v>
       </c>
     </row>
   </sheetData>
